--- a/ig/ch-vacd/ValueSet-ch-vacd-vaccines-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-vaccines-vs.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Swiss Medic Auth" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Old Swiss Vaccin" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Swiss Medic Auth" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Old Swiss Vaccin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +101,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -112,6 +113,21 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>787859002</t>
+  </si>
+  <si>
+    <t>Vaccine product (medicinal product)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>683</t>
   </si>
   <si>
@@ -439,7 +455,7 @@
     <t>711-02</t>
   </si>
   <si>
-    <t>Diphtherie- und Tetanus-Adsorbatimpfstoff für Erwachsene und Kinder ab 7 Jahren, Injektionssuspension, Emergent BioSolutions Berna GmbH</t>
+    <t>Diphtherie- und Tetanus-Adsorbatimpfstoff für Erwachsene und Kinder ab 7 Jahren</t>
   </si>
   <si>
     <t>704</t>
@@ -529,7 +545,7 @@
     <t>60129</t>
   </si>
   <si>
-    <t>Prevenar-13</t>
+    <t>Prevenar 13</t>
   </si>
   <si>
     <t>59147</t>
@@ -667,7 +683,7 @@
     <t>68473</t>
   </si>
   <si>
-    <t>Nuvaxovid 5 ml, Injektionsdispersion</t>
+    <t>Nuvaxovid 5 ml</t>
   </si>
   <si>
     <t>68358</t>
@@ -688,9 +704,6 @@
     <t>Comirnaty® 10 Mikrogramm/Dosis</t>
   </si>
   <si>
-    <t>Nuvaxovid 5 ml</t>
-  </si>
-  <si>
     <t>68462</t>
   </si>
   <si>
@@ -721,10 +734,46 @@
     <t>MenQuadfi</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
+    <t>69123</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron 10 mg/ml, Fertigspritze</t>
+  </si>
+  <si>
+    <t>69010</t>
+  </si>
+  <si>
+    <t>Spikevax, Fertigspritze</t>
+  </si>
+  <si>
+    <t>69047</t>
+  </si>
+  <si>
+    <t>Comirnaty® Original/Omicron BA.1 15/15 µg pro Dosis</t>
+  </si>
+  <si>
+    <t>69127</t>
+  </si>
+  <si>
+    <t>Comirnaty Original/Omicron BA. 4-5 0.225 mg</t>
+  </si>
+  <si>
+    <t>69189</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+  </si>
+  <si>
+    <t>69211</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, Fertigspritze</t>
+  </si>
+  <si>
+    <t>68752</t>
+  </si>
+  <si>
+    <t>Vaxneuvance, Injektionssuspension</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-swissmedic-cs</t>
@@ -1332,10 +1381,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,823 +1567,15 @@
         <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2343,6 +1584,919 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B83"/>
   <sheetViews>
@@ -2364,658 +2518,658 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>235</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-vaccines-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-vaccines-vs.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
